--- a/R/data/dane_do_R.xlsx
+++ b/R/data/dane_do_R.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krzys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\projekt_końcowy\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07403E64-3EB0-4DA5-B00A-00F5154CBE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCF532-F5B1-434B-AA79-9A832D47D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1DD0839-2B70-4B57-AE74-50F8D882BA7C}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,27 +787,104 @@
       <c r="A26" s="1">
         <v>45623</v>
       </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>5375</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5783</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3339</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4976</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B30">
+        <v>1.5</v>
+      </c>
+      <c r="C30">
+        <v>8263</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>5638</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>4942</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>45630</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>

--- a/R/data/dane_do_R.xlsx
+++ b/R/data/dane_do_R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\projekt_końcowy\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCF532-F5B1-434B-AA79-9A832D47D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F239C96-AD66-40B8-9212-82FAE64B86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1DD0839-2B70-4B57-AE74-50F8D882BA7C}"/>
   </bookViews>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756A92BE-8166-4677-BF35-DA96D1FACEC8}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,25 +875,522 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>4942</v>
+        <v>6069</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45630</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>5661</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>4765</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1611</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2123</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>5153</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>7639</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>7163</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B40">
+        <v>2.5</v>
+      </c>
+      <c r="C40">
+        <v>3827</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>4286</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2964</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>4560</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4286</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>5527</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4977</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>7093</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2202</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>3741</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2799</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>341</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>873</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1942</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2738</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2174</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>3846</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2846</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B58">
+        <v>2.5</v>
+      </c>
+      <c r="C58">
+        <v>5738</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>4876</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>2753</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B61">
+        <v>2.5</v>
+      </c>
+      <c r="C61">
+        <v>653</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>497</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1486</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2586</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>654</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>1715</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>4860</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/dane_do_R.xlsx
+++ b/R/data/dane_do_R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\projekt_końcowy\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F239C96-AD66-40B8-9212-82FAE64B86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CBF952-B4F9-4655-8E3E-18A1C5B1F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1DD0839-2B70-4B57-AE74-50F8D882BA7C}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,25 +1372,102 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>4543</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>5469</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>532</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>4374</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B72">
+        <v>1.5</v>
+      </c>
+      <c r="C72">
+        <v>1155</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>3535</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>5330</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
